--- a/Test-cases and Test-result.xlsx
+++ b/Test-cases and Test-result.xlsx
@@ -527,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +570,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -665,7 +672,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -678,6 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -982,18 +989,18 @@
   <dimension ref="B2:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.109375" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
     <col min="12" max="12" width="31.6640625" customWidth="1"/>
@@ -1034,8 +1041,8 @@
       <c r="K2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="P2" s="17"/>
+      <c r="L2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1066,8 +1073,8 @@
         <v>50</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="18"/>
-      <c r="P3" s="21"/>
+      <c r="L3" s="17"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="2:16" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1098,8 +1105,8 @@
         <v>50</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="18"/>
-      <c r="P4" s="21"/>
+      <c r="L4" s="17"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="2:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1130,8 +1137,8 @@
         <v>50</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="18"/>
-      <c r="P5" s="21"/>
+      <c r="L5" s="17"/>
+      <c r="P5" s="20"/>
     </row>
     <row r="6" spans="2:16" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
@@ -1162,8 +1169,8 @@
         <v>50</v>
       </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="18"/>
-      <c r="P6" s="21"/>
+      <c r="L6" s="17"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="2:16" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
@@ -1194,8 +1201,8 @@
         <v>50</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="18"/>
-      <c r="P7" s="21"/>
+      <c r="L7" s="17"/>
+      <c r="P7" s="20"/>
     </row>
     <row r="8" spans="2:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
@@ -1226,8 +1233,8 @@
         <v>50</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="18"/>
-      <c r="P8" s="21"/>
+      <c r="L8" s="17"/>
+      <c r="P8" s="20"/>
     </row>
     <row r="9" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -1258,8 +1265,8 @@
         <v>50</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="18"/>
-      <c r="P9" s="21"/>
+      <c r="L9" s="17"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
@@ -1290,8 +1297,8 @@
         <v>50</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="18"/>
-      <c r="P10" s="21"/>
+      <c r="L10" s="17"/>
+      <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
@@ -1320,8 +1327,8 @@
         <v>50</v>
       </c>
       <c r="K11" s="1"/>
-      <c r="L11" s="18"/>
-      <c r="P11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -1352,8 +1359,8 @@
         <v>50</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="19"/>
-      <c r="P12" s="21"/>
+      <c r="L12" s="18"/>
+      <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
@@ -1384,8 +1391,8 @@
         <v>50</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="P13" s="20"/>
     </row>
     <row r="14" spans="2:16" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
@@ -1416,8 +1423,8 @@
         <v>50</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="19"/>
-      <c r="P14" s="21"/>
+      <c r="L14" s="18"/>
+      <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
@@ -1448,8 +1455,8 @@
         <v>50</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="L15" s="19"/>
+      <c r="P15" s="20"/>
     </row>
     <row r="16" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -1480,8 +1487,8 @@
         <v>50</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="18"/>
-      <c r="P16" s="22"/>
+      <c r="L16" s="17"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
@@ -1512,8 +1519,8 @@
         <v>50</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="18"/>
-      <c r="P17" s="22"/>
+      <c r="L17" s="17"/>
+      <c r="P17" s="21"/>
     </row>
     <row r="18" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
@@ -1544,8 +1551,8 @@
         <v>50</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="18"/>
-      <c r="P18" s="22"/>
+      <c r="L18" s="17"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
@@ -1576,8 +1583,8 @@
         <v>50</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="18"/>
-      <c r="P19" s="22"/>
+      <c r="L19" s="17"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
@@ -1608,8 +1615,8 @@
         <v>50</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="20"/>
-      <c r="P20" s="22"/>
+      <c r="L20" s="19"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="2:16" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
@@ -1640,8 +1647,8 @@
         <v>50</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="20"/>
-      <c r="P21" s="22"/>
+      <c r="L21" s="19"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
@@ -1672,8 +1679,8 @@
         <v>50</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="20"/>
-      <c r="P22" s="22"/>
+      <c r="L22" s="19"/>
+      <c r="P22" s="21"/>
     </row>
     <row r="23" spans="2:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
@@ -1691,7 +1698,7 @@
       <c r="F23" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="23" t="s">
         <v>120</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -1700,14 +1707,14 @@
       <c r="I23" s="8">
         <v>43613</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>122</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L23" s="20"/>
-      <c r="P23" s="23"/>
+      <c r="L23" s="19"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="2:16" ht="361.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
@@ -1738,8 +1745,8 @@
         <v>50</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="18"/>
-      <c r="P24" s="21"/>
+      <c r="L24" s="17"/>
+      <c r="P24" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test-cases and Test-result.xlsx
+++ b/Test-cases and Test-result.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="5496" windowWidth="23040" windowHeight="4140"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -383,6 +383,136 @@
 8. Экспортировать составленное расписание в таблицу Exel</t>
   </si>
   <si>
+    <t>Вывод предметов, соответствущих 
+каждому преподавателю, возможность их добавления и удаления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод предметов, соответствующих кадой группе, возможность их добавления и удаления
+</t>
+  </si>
+  <si>
+    <t>Приложение запущено на ОС Windows10, 
+открыта вкладка Преподаватели</t>
+  </si>
+  <si>
+    <t>Приложение запущенона ОС Windows10, 
+открыта вкладка Аудитории</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Приложение запущено на ОС Windows10, открыта вкладка Расписание, таблицы БД заполнены
+</t>
+  </si>
+  <si>
+    <t>Приложение запускается на ОС Windows10, БД таблицы расписание заполнена данными</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Запустить приложение 
+2.Переключиться между вкладками по дням недели с понедельника до субботы 
+</t>
+  </si>
+  <si>
+    <t>1.Приложение запустилось на первоначальной вкладке Расписание, день недели Понедельник, для которого отображается расписаине из БД
+2. На каждой вкладке, соответствующей дню недели отображается таблица из бд с расписанием для этого дня</t>
+  </si>
+  <si>
+    <t>1. Запустить приложение
+2.Открыть вкладку Группы
+3. Открыть вкладку Преподаватели
+4. Открыть вкладку Дисциплины
+5. Открыть вкладку Аудитории</t>
+  </si>
+  <si>
+    <t>Приложение запускается на ОС Windows10, таблицы БД Группы, Преподаватели, Дисциплины и Аудитории заполнены</t>
+  </si>
+  <si>
+    <t>1. Приложение запустилось, открылась первоначальная вкладка Рсписание, день недели Понедельник, отображается расписание для Понедельника из БД
+2.В поле для таблицы отображается таблица из БД с перечнем групп
+3.  В поле для таблицы отображается таблица из БД с преподавателями
+4.  В поле для таблицы отображается таблица из БД с перечнем дисциплин
+5.  В поле для таблицы отображается таблица из БД с перечнем аудиторий</t>
+  </si>
+  <si>
+    <t>Запуск приложения и отображение таблицы расписания из бд в модуле расписание для каждого дня недели</t>
+  </si>
+  <si>
+    <t>Запуск приложения и отображение соответствующих 
+таблиц из бд во вкладках Группы, 
+Преподаватели, Дисциплины,
+Аудитории</t>
+  </si>
+  <si>
+    <t>Приложение запущено на ОС Windows10, 
+открыта вкладка Расписание, выбрана группа для заполнения</t>
+  </si>
+  <si>
+    <t>Приложение запущено на ОС Windows10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновление выпадающего списка в модуле Расписание при добавлении/удалении преподавателя, предмета, аудитории в соответствующих таблицах
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Соответствующие дисциплины добавились, удалились и изменились в списке предметов
+2. Обновленный список дисциплин отображается в выпадающем списке предметов
+3. Новый преподаватель добавился к списку преподавателей, выбранный преподаватель удалился и другой выбранный изменился
+4. Обновленный список преподавателей отображается в выпадающем списке преподавателей
+5. Новая аудиория добавилась к списку аудиторий, выбранная удалилась
+6. Обновленный список аудиторий отображается в выпадающем списке аудиторий
+</t>
+  </si>
+  <si>
+    <t>1. Перейти на вкладку Дисциплины, добавить новую дисциплину, удалить старую, изменить имеющуюся
+2. Перейти на вкладку Расписание, открыть выпадающий список Предметов
+3. Перейти на вкладку Преподаватели, добавить нового преподавателя, удалить старого и изменить
+4. Перейти на вкладку Расписание, открыть выпадающий список Преподавателей
+5. Перейти на вкладку Аудитории, добавить новую аудиторию, удалить старую
+6. Перейти на вкладку Расписание, открыть выпадающий список аудиторий</t>
+  </si>
+  <si>
+    <t>1. Перейти на вкладку группы, добавить новую группу, удалить старую
+2. Перейти на вкладку расписание</t>
+  </si>
+  <si>
+    <t>1. Новая группа добавилась к списку, выбранная группы удалилась из списка
+2. Отображается таблица расписания с обновленным списком групп.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обновлении таблицы расписания при добавлении/удалении новой группы на вкладке Группы
+</t>
+  </si>
+  <si>
+    <t>ТС20</t>
+  </si>
+  <si>
+    <t>ТС21</t>
+  </si>
+  <si>
+    <t>Подбор свободных аудиторий</t>
+  </si>
+  <si>
+    <t>Приложение запущено на ОС Windows10, 
+открыта вкладка Расписание</t>
+  </si>
+  <si>
+    <t>1. Выбрать пустую ячейку для добавления занятия и нажать кнопку Показать свободные аудитории</t>
+  </si>
+  <si>
+    <t>1. Появляется список аудиторий, которые не заняты на выбранное время.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>ТС22</t>
+  </si>
+  <si>
+    <t>Завален</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выводится список всех аудиторий, а не только свободных
+</t>
+  </si>
+  <si>
     <t>1.Таблицы Дисциплины отображается из БД, введенные дисциплины добавились из бд, ненужные удалились
 2. Получен список групп и отображается в таблице
 3. Отобразилась таблица Предметы группы со списком дисциплин для выбранной группы, нужные предметы добавились к списку предметов для группы
@@ -390,144 +520,14 @@
 5. Отобразилась таблица с дисциплинами для конкретного преподавателя, добавление и удаление дисциплин для преподавателя работает
 6. Отображается список аудиторий из БД
 7. Добавленные пары отображаются в таблице Расписание
-8. Расписание сохранилось в документе Exel</t>
-  </si>
-  <si>
-    <t>Вывод предметов, соответствущих 
-каждому преподавателю, возможность их добавления и удаления</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вывод предметов, соответствующих кадой группе, возможность их добавления и удаления
-</t>
-  </si>
-  <si>
-    <t>Приложение запущено на ОС Windows10, 
-открыта вкладка Преподаватели</t>
-  </si>
-  <si>
-    <t>Приложение запущенона ОС Windows10, 
-открыта вкладка Аудитории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Приложение запущено на ОС Windows10, открыта вкладка Расписание, таблицы БД заполнены
-</t>
-  </si>
-  <si>
-    <t>Приложение запускается на ОС Windows10, БД таблицы расписание заполнена данными</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Запустить приложение 
-2.Переключиться между вкладками по дням недели с понедельника до субботы 
-</t>
-  </si>
-  <si>
-    <t>1.Приложение запустилось на первоначальной вкладке Расписание, день недели Понедельник, для которого отображается расписаине из БД
-2. На каждой вкладке, соответствующей дню недели отображается таблица из бд с расписанием для этого дня</t>
-  </si>
-  <si>
-    <t>1. Запустить приложение
-2.Открыть вкладку Группы
-3. Открыть вкладку Преподаватели
-4. Открыть вкладку Дисциплины
-5. Открыть вкладку Аудитории</t>
-  </si>
-  <si>
-    <t>Приложение запускается на ОС Windows10, таблицы БД Группы, Преподаватели, Дисциплины и Аудитории заполнены</t>
-  </si>
-  <si>
-    <t>1. Приложение запустилось, открылась первоначальная вкладка Рсписание, день недели Понедельник, отображается расписание для Понедельника из БД
-2.В поле для таблицы отображается таблица из БД с перечнем групп
-3.  В поле для таблицы отображается таблица из БД с преподавателями
-4.  В поле для таблицы отображается таблица из БД с перечнем дисциплин
-5.  В поле для таблицы отображается таблица из БД с перечнем аудиторий</t>
-  </si>
-  <si>
-    <t>Запуск приложения и отображение таблицы расписания из бд в модуле расписание для каждого дня недели</t>
-  </si>
-  <si>
-    <t>Запуск приложения и отображение соответствующих 
-таблиц из бд во вкладках Группы, 
-Преподаватели, Дисциплины,
-Аудитории</t>
-  </si>
-  <si>
-    <t>Приложение запущено на ОС Windows10, 
-открыта вкладка Расписание, выбрана группа для заполнения</t>
-  </si>
-  <si>
-    <t>Приложение запущено на ОС Windows10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновление выпадающего списка в модуле Расписание при добавлении/удалении преподавателя, предмета, аудитории в соответствующих таблицах
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Соответствующие дисциплины добавились, удалились и изменились в списке предметов
-2. Обновленный список дисциплин отображается в выпадающем списке предметов
-3. Новый преподаватель добавился к списку преподавателей, выбранный преподаватель удалился и другой выбранный изменился
-4. Обновленный список преподавателей отображается в выпадающем списке преподавателей
-5. Новая аудиория добавилась к списку аудиторий, выбранная удалилась
-6. Обновленный список аудиторий отображается в выпадающем списке аудиторий
-</t>
-  </si>
-  <si>
-    <t>1. Перейти на вкладку Дисциплины, добавить новую дисциплину, удалить старую, изменить имеющуюся
-2. Перейти на вкладку Расписание, открыть выпадающий список Предметов
-3. Перейти на вкладку Преподаватели, добавить нового преподавателя, удалить старого и изменить
-4. Перейти на вкладку Расписание, открыть выпадающий список Преподавателей
-5. Перейти на вкладку Аудитории, добавить новую аудиторию, удалить старую
-6. Перейти на вкладку Расписание, открыть выпадающий список аудиторий</t>
-  </si>
-  <si>
-    <t>1. Перейти на вкладку группы, добавить новую группу, удалить старую
-2. Перейти на вкладку расписание</t>
-  </si>
-  <si>
-    <t>1. Новая группа добавилась к списку, выбранная группы удалилась из списка
-2. Отображается таблица расписания с обновленным списком групп.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обновлении таблицы расписания при добавлении/удалении новой группы на вкладке Группы
-</t>
-  </si>
-  <si>
-    <t>ТС20</t>
-  </si>
-  <si>
-    <t>ТС21</t>
-  </si>
-  <si>
-    <t>Подбор свободных аудиторий</t>
-  </si>
-  <si>
-    <t>Приложение запущено на ОС Windows10, 
-открыта вкладка Расписание</t>
-  </si>
-  <si>
-    <t>1. Выбрать пустую ячейку для добавления занятия и нажать кнопку Показать свободные аудитории</t>
-  </si>
-  <si>
-    <t>1. Появляется список аудиторий, которые не заняты на выбранное время.</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>ТС22</t>
-  </si>
-  <si>
-    <t>Завален</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выводится список всех аудиторий, а не только свободных
-</t>
+8. Расписание сохранилось в документе Exel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,7 +774,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -809,7 +808,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -985,14 +983,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" customWidth="1"/>
@@ -1010,7 +1008,7 @@
     <col min="16" max="16" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="27.6">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1044,21 +1042,21 @@
       <c r="L2" s="16"/>
       <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="2:16" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="143.4" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>2</v>
@@ -1076,21 +1074,21 @@
       <c r="L3" s="17"/>
       <c r="P3" s="20"/>
     </row>
-    <row r="4" spans="2:16" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="187.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>2</v>
@@ -1108,7 +1106,7 @@
       <c r="L4" s="17"/>
       <c r="P4" s="20"/>
     </row>
-    <row r="5" spans="2:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="158.4">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1138,7 @@
       <c r="L5" s="17"/>
       <c r="P5" s="20"/>
     </row>
-    <row r="6" spans="2:16" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="183" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +1170,7 @@
       <c r="L6" s="17"/>
       <c r="P6" s="20"/>
     </row>
-    <row r="7" spans="2:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="201.6">
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1204,21 +1202,21 @@
       <c r="L7" s="17"/>
       <c r="P7" s="20"/>
     </row>
-    <row r="8" spans="2:16" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="273.60000000000002">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>2</v>
@@ -1236,21 +1234,21 @@
       <c r="L8" s="17"/>
       <c r="P8" s="20"/>
     </row>
-    <row r="9" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="72">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>2</v>
@@ -1268,12 +1266,12 @@
       <c r="L9" s="17"/>
       <c r="P9" s="20"/>
     </row>
-    <row r="10" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="172.8">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>80</v>
@@ -1300,12 +1298,12 @@
       <c r="L10" s="17"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="2:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="158.4">
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>81</v>
@@ -1330,7 +1328,7 @@
       <c r="L11" s="17"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="2:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="100.8">
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="L12" s="18"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="72">
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1394,7 +1392,7 @@
       <c r="L13" s="19"/>
       <c r="P13" s="20"/>
     </row>
-    <row r="14" spans="2:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="72">
       <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1424,7 @@
       <c r="L14" s="18"/>
       <c r="P14" s="20"/>
     </row>
-    <row r="15" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="115.2">
       <c r="B15" s="4" t="s">
         <v>57</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>60</v>
@@ -1458,7 +1456,7 @@
       <c r="L15" s="19"/>
       <c r="P15" s="20"/>
     </row>
-    <row r="16" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="115.2">
       <c r="B16" s="4" t="s">
         <v>58</v>
       </c>
@@ -1490,7 +1488,7 @@
       <c r="L16" s="17"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="2:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="172.8">
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
@@ -1498,7 +1496,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
@@ -1522,7 +1520,7 @@
       <c r="L17" s="17"/>
       <c r="P17" s="21"/>
     </row>
-    <row r="18" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="115.2">
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
@@ -1554,7 +1552,7 @@
       <c r="L18" s="17"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="2:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="115.2">
       <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
@@ -1562,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>45</v>
@@ -1586,7 +1584,7 @@
       <c r="L19" s="17"/>
       <c r="P19" s="21"/>
     </row>
-    <row r="20" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="57.6">
       <c r="B20" s="4" t="s">
         <v>78</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>65</v>
@@ -1618,7 +1616,7 @@
       <c r="L20" s="19"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="2:16" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="94.8" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1650,15 +1648,15 @@
       <c r="L21" s="19"/>
       <c r="P21" s="21"/>
     </row>
-    <row r="22" spans="2:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="57.6">
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>73</v>
@@ -1682,24 +1680,24 @@
       <c r="L22" s="19"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="2:16" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="156.6" customHeight="1">
       <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
@@ -1708,29 +1706,29 @@
         <v>43613</v>
       </c>
       <c r="J23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="L23" s="19"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="2:16" ht="361.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="361.8" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>2</v>
@@ -1754,24 +1752,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test-cases and Test-result.xlsx
+++ b/Test-cases and Test-result.xlsx
@@ -497,9 +497,6 @@
     <t>1. Выбрать пустую ячейку для добавления занятия и нажать кнопку Показать свободные аудитории</t>
   </si>
   <si>
-    <t>1. Появляется список аудиторий, которые не заняты на выбранное время.</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -521,6 +518,9 @@
 6. Отображается список аудиторий из БД
 7. Добавленные пары отображаются в таблице Расписание
 8. Расписание сохранилось в документе Exel.</t>
+  </si>
+  <si>
+    <t>1. Появляется список аудиторий, которые не заняты на выбранное время</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1694,10 +1694,10 @@
         <v>117</v>
       </c>
       <c r="F23" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>15</v>
@@ -1706,17 +1706,17 @@
         <v>43613</v>
       </c>
       <c r="J23" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="L23" s="19"/>
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="2:16" ht="361.8" customHeight="1">
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>77</v>
@@ -1728,7 +1728,7 @@
         <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>2</v>
